--- a/2022/Samsung/February/21.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
+++ b/2022/Samsung/February/21.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -2933,6 +2933,9 @@
     <xf numFmtId="1" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="34" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2944,6 +2947,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2972,22 +2987,10 @@
     <xf numFmtId="1" fontId="37" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3067,9 +3070,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="44" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3528,33 +3528,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="316"/>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
+      <c r="A1" s="317"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="317"/>
-      <c r="B2" s="314" t="s">
+      <c r="A2" s="318"/>
+      <c r="B2" s="315" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="317"/>
-      <c r="B3" s="315" t="s">
+      <c r="A3" s="318"/>
+      <c r="B3" s="316" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="317"/>
+      <c r="A4" s="318"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3572,7 +3572,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="317"/>
+      <c r="A5" s="318"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="317"/>
+      <c r="A6" s="318"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3602,7 +3602,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="317"/>
+      <c r="A7" s="318"/>
       <c r="B7" s="26" t="s">
         <v>46</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="317"/>
+      <c r="A8" s="318"/>
       <c r="B8" s="26" t="s">
         <v>47</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="317"/>
+      <c r="A9" s="318"/>
       <c r="B9" s="26" t="s">
         <v>49</v>
       </c>
@@ -3659,7 +3659,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="317"/>
+      <c r="A10" s="318"/>
       <c r="B10" s="26" t="s">
         <v>50</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="317"/>
+      <c r="A11" s="318"/>
       <c r="B11" s="26" t="s">
         <v>51</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="317"/>
+      <c r="A12" s="318"/>
       <c r="B12" s="26" t="s">
         <v>52</v>
       </c>
@@ -3716,7 +3716,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="317"/>
+      <c r="A13" s="318"/>
       <c r="B13" s="26" t="s">
         <v>53</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="317"/>
+      <c r="A14" s="318"/>
       <c r="B14" s="26" t="s">
         <v>54</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="317"/>
+      <c r="A15" s="318"/>
       <c r="B15" s="26" t="s">
         <v>55</v>
       </c>
@@ -3773,7 +3773,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="317"/>
+      <c r="A16" s="318"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3786,7 +3786,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="317"/>
+      <c r="A17" s="318"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3799,7 +3799,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="317"/>
+      <c r="A18" s="318"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3812,7 +3812,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="317"/>
+      <c r="A19" s="318"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -3825,7 +3825,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="317"/>
+      <c r="A20" s="318"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3838,7 +3838,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="317"/>
+      <c r="A21" s="318"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -3851,7 +3851,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="317"/>
+      <c r="A22" s="318"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -3864,7 +3864,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="317"/>
+      <c r="A23" s="318"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3877,7 +3877,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="317"/>
+      <c r="A24" s="318"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -3890,7 +3890,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="317"/>
+      <c r="A25" s="318"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -3903,7 +3903,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="317"/>
+      <c r="A26" s="318"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3916,7 +3916,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="317"/>
+      <c r="A27" s="318"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -3929,7 +3929,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="317"/>
+      <c r="A28" s="318"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -3942,7 +3942,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="317"/>
+      <c r="A29" s="318"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -3955,7 +3955,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="317"/>
+      <c r="A30" s="318"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -3968,7 +3968,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="317"/>
+      <c r="A31" s="318"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -3981,7 +3981,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="317"/>
+      <c r="A32" s="318"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -3994,7 +3994,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="317"/>
+      <c r="A33" s="318"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4007,7 +4007,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="317"/>
+      <c r="A34" s="318"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4020,7 +4020,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="317"/>
+      <c r="A35" s="318"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4033,7 +4033,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="317"/>
+      <c r="A36" s="318"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4046,7 +4046,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="317"/>
+      <c r="A37" s="318"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4059,7 +4059,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="317"/>
+      <c r="A38" s="318"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4072,7 +4072,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="317"/>
+      <c r="A39" s="318"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4085,7 +4085,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="317"/>
+      <c r="A40" s="318"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4098,7 +4098,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="317"/>
+      <c r="A41" s="318"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4111,7 +4111,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="317"/>
+      <c r="A42" s="318"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4124,7 +4124,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="317"/>
+      <c r="A43" s="318"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4137,7 +4137,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="317"/>
+      <c r="A44" s="318"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4150,7 +4150,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="317"/>
+      <c r="A45" s="318"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4163,7 +4163,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="317"/>
+      <c r="A46" s="318"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4176,7 +4176,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="317"/>
+      <c r="A47" s="318"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4189,7 +4189,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="317"/>
+      <c r="A48" s="318"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4202,7 +4202,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="317"/>
+      <c r="A49" s="318"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4215,7 +4215,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="317"/>
+      <c r="A50" s="318"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4228,7 +4228,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="317"/>
+      <c r="A51" s="318"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4241,7 +4241,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="317"/>
+      <c r="A52" s="318"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4254,7 +4254,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="317"/>
+      <c r="A53" s="318"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4267,7 +4267,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="317"/>
+      <c r="A54" s="318"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4280,7 +4280,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="317"/>
+      <c r="A55" s="318"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4292,7 +4292,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="317"/>
+      <c r="A56" s="318"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4304,7 +4304,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="317"/>
+      <c r="A57" s="318"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4316,7 +4316,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="317"/>
+      <c r="A58" s="318"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4328,7 +4328,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="317"/>
+      <c r="A59" s="318"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4340,7 +4340,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="317"/>
+      <c r="A60" s="318"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4352,7 +4352,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="317"/>
+      <c r="A61" s="318"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4364,7 +4364,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="317"/>
+      <c r="A62" s="318"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4376,7 +4376,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="317"/>
+      <c r="A63" s="318"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4388,7 +4388,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="317"/>
+      <c r="A64" s="318"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4400,7 +4400,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="317"/>
+      <c r="A65" s="318"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4412,7 +4412,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="317"/>
+      <c r="A66" s="318"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4424,7 +4424,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="317"/>
+      <c r="A67" s="318"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4436,7 +4436,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="317"/>
+      <c r="A68" s="318"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4448,7 +4448,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="317"/>
+      <c r="A69" s="318"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4460,7 +4460,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="317"/>
+      <c r="A70" s="318"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4472,7 +4472,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="317"/>
+      <c r="A71" s="318"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4484,7 +4484,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="317"/>
+      <c r="A72" s="318"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4496,7 +4496,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="317"/>
+      <c r="A73" s="318"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4508,7 +4508,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="317"/>
+      <c r="A74" s="318"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4520,7 +4520,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="317"/>
+      <c r="A75" s="318"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4532,7 +4532,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="317"/>
+      <c r="A76" s="318"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4544,7 +4544,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="317"/>
+      <c r="A77" s="318"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4556,7 +4556,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="317"/>
+      <c r="A78" s="318"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4568,7 +4568,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="317"/>
+      <c r="A79" s="318"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4580,7 +4580,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="317"/>
+      <c r="A80" s="318"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4592,7 +4592,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="317"/>
+      <c r="A81" s="318"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4604,7 +4604,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="317"/>
+      <c r="A82" s="318"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4616,7 +4616,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="317"/>
+      <c r="A83" s="318"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5223,33 +5223,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="316"/>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
+      <c r="A1" s="317"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="317"/>
-      <c r="B2" s="314" t="s">
+      <c r="A2" s="318"/>
+      <c r="B2" s="315" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="317"/>
-      <c r="B3" s="315" t="s">
+      <c r="A3" s="318"/>
+      <c r="B3" s="316" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="317"/>
+      <c r="A4" s="318"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5267,7 +5267,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="317"/>
+      <c r="A5" s="318"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="317"/>
+      <c r="A6" s="318"/>
       <c r="B6" s="26"/>
       <c r="C6" s="252"/>
       <c r="D6" s="252"/>
@@ -5297,7 +5297,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="317"/>
+      <c r="A7" s="318"/>
       <c r="B7" s="26" t="s">
         <v>70</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="317"/>
+      <c r="A8" s="318"/>
       <c r="B8" s="26" t="s">
         <v>90</v>
       </c>
@@ -5333,7 +5333,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="317"/>
+      <c r="A9" s="318"/>
       <c r="B9" s="26" t="s">
         <v>99</v>
       </c>
@@ -5351,7 +5351,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="317"/>
+      <c r="A10" s="318"/>
       <c r="B10" s="26" t="s">
         <v>106</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="317"/>
+      <c r="A11" s="318"/>
       <c r="B11" s="26" t="s">
         <v>117</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="317"/>
+      <c r="A12" s="318"/>
       <c r="B12" s="26" t="s">
         <v>129</v>
       </c>
@@ -5407,7 +5407,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="317"/>
+      <c r="A13" s="318"/>
       <c r="B13" s="26" t="s">
         <v>138</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="317"/>
+      <c r="A14" s="318"/>
       <c r="B14" s="26" t="s">
         <v>139</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="317"/>
+      <c r="A15" s="318"/>
       <c r="B15" s="26" t="s">
         <v>140</v>
       </c>
@@ -5463,7 +5463,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="317"/>
+      <c r="A16" s="318"/>
       <c r="B16" s="26" t="s">
         <v>146</v>
       </c>
@@ -5481,7 +5481,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="317"/>
+      <c r="A17" s="318"/>
       <c r="B17" s="26" t="s">
         <v>147</v>
       </c>
@@ -5501,7 +5501,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="317"/>
+      <c r="A18" s="318"/>
       <c r="B18" s="26" t="s">
         <v>149</v>
       </c>
@@ -5519,7 +5519,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="317"/>
+      <c r="A19" s="318"/>
       <c r="B19" s="26" t="s">
         <v>150</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="317"/>
+      <c r="A20" s="318"/>
       <c r="B20" s="26" t="s">
         <v>153</v>
       </c>
@@ -5555,7 +5555,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="317"/>
+      <c r="A21" s="318"/>
       <c r="B21" s="26" t="s">
         <v>165</v>
       </c>
@@ -5573,7 +5573,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="317"/>
+      <c r="A22" s="318"/>
       <c r="B22" s="26" t="s">
         <v>167</v>
       </c>
@@ -5593,7 +5593,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="317"/>
+      <c r="A23" s="318"/>
       <c r="B23" s="26" t="s">
         <v>170</v>
       </c>
@@ -5611,7 +5611,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="317"/>
+      <c r="A24" s="318"/>
       <c r="B24" s="26"/>
       <c r="C24" s="252"/>
       <c r="D24" s="252"/>
@@ -5623,7 +5623,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="317"/>
+      <c r="A25" s="318"/>
       <c r="B25" s="26"/>
       <c r="C25" s="252"/>
       <c r="D25" s="252"/>
@@ -5635,7 +5635,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="317"/>
+      <c r="A26" s="318"/>
       <c r="B26" s="26"/>
       <c r="C26" s="252"/>
       <c r="D26" s="252"/>
@@ -5647,7 +5647,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="317"/>
+      <c r="A27" s="318"/>
       <c r="B27" s="26"/>
       <c r="C27" s="252"/>
       <c r="D27" s="252"/>
@@ -5659,7 +5659,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="317"/>
+      <c r="A28" s="318"/>
       <c r="B28" s="26"/>
       <c r="C28" s="252"/>
       <c r="D28" s="252"/>
@@ -5671,7 +5671,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="317"/>
+      <c r="A29" s="318"/>
       <c r="B29" s="26"/>
       <c r="C29" s="252"/>
       <c r="D29" s="252"/>
@@ -5683,7 +5683,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="317"/>
+      <c r="A30" s="318"/>
       <c r="B30" s="26"/>
       <c r="C30" s="252"/>
       <c r="D30" s="252"/>
@@ -5695,7 +5695,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="317"/>
+      <c r="A31" s="318"/>
       <c r="B31" s="26"/>
       <c r="C31" s="252"/>
       <c r="D31" s="252"/>
@@ -5707,7 +5707,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="317"/>
+      <c r="A32" s="318"/>
       <c r="B32" s="26"/>
       <c r="C32" s="252"/>
       <c r="D32" s="252"/>
@@ -5719,7 +5719,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="317"/>
+      <c r="A33" s="318"/>
       <c r="B33" s="26"/>
       <c r="C33" s="252"/>
       <c r="D33" s="255"/>
@@ -5731,7 +5731,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="317"/>
+      <c r="A34" s="318"/>
       <c r="B34" s="26"/>
       <c r="C34" s="252"/>
       <c r="D34" s="252"/>
@@ -5743,7 +5743,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="317"/>
+      <c r="A35" s="318"/>
       <c r="B35" s="26"/>
       <c r="C35" s="252"/>
       <c r="D35" s="252"/>
@@ -5755,7 +5755,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="317"/>
+      <c r="A36" s="318"/>
       <c r="B36" s="26"/>
       <c r="C36" s="252"/>
       <c r="D36" s="252"/>
@@ -5767,7 +5767,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="317"/>
+      <c r="A37" s="318"/>
       <c r="B37" s="26"/>
       <c r="C37" s="252"/>
       <c r="D37" s="252"/>
@@ -5779,7 +5779,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="317"/>
+      <c r="A38" s="318"/>
       <c r="B38" s="26"/>
       <c r="C38" s="252"/>
       <c r="D38" s="252"/>
@@ -5791,7 +5791,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="317"/>
+      <c r="A39" s="318"/>
       <c r="B39" s="26"/>
       <c r="C39" s="252"/>
       <c r="D39" s="252"/>
@@ -5803,7 +5803,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="317"/>
+      <c r="A40" s="318"/>
       <c r="B40" s="26"/>
       <c r="C40" s="252"/>
       <c r="D40" s="252"/>
@@ -5815,7 +5815,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="317"/>
+      <c r="A41" s="318"/>
       <c r="B41" s="26"/>
       <c r="C41" s="252"/>
       <c r="D41" s="252"/>
@@ -5827,7 +5827,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="317"/>
+      <c r="A42" s="318"/>
       <c r="B42" s="26"/>
       <c r="C42" s="252"/>
       <c r="D42" s="252"/>
@@ -5839,7 +5839,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="317"/>
+      <c r="A43" s="318"/>
       <c r="B43" s="26"/>
       <c r="C43" s="252"/>
       <c r="D43" s="252"/>
@@ -5851,7 +5851,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="317"/>
+      <c r="A44" s="318"/>
       <c r="B44" s="26"/>
       <c r="C44" s="252"/>
       <c r="D44" s="252"/>
@@ -5863,7 +5863,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="317"/>
+      <c r="A45" s="318"/>
       <c r="B45" s="26"/>
       <c r="C45" s="252"/>
       <c r="D45" s="252"/>
@@ -5875,7 +5875,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="317"/>
+      <c r="A46" s="318"/>
       <c r="B46" s="26"/>
       <c r="C46" s="252"/>
       <c r="D46" s="252"/>
@@ -5887,7 +5887,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="317"/>
+      <c r="A47" s="318"/>
       <c r="B47" s="26"/>
       <c r="C47" s="252"/>
       <c r="D47" s="252"/>
@@ -5899,7 +5899,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="317"/>
+      <c r="A48" s="318"/>
       <c r="B48" s="26"/>
       <c r="C48" s="252"/>
       <c r="D48" s="252"/>
@@ -5911,7 +5911,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="317"/>
+      <c r="A49" s="318"/>
       <c r="B49" s="26"/>
       <c r="C49" s="252"/>
       <c r="D49" s="252"/>
@@ -5923,7 +5923,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="317"/>
+      <c r="A50" s="318"/>
       <c r="B50" s="26"/>
       <c r="C50" s="252"/>
       <c r="D50" s="252"/>
@@ -5935,7 +5935,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="317"/>
+      <c r="A51" s="318"/>
       <c r="B51" s="26"/>
       <c r="C51" s="252"/>
       <c r="D51" s="252"/>
@@ -5947,7 +5947,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="317"/>
+      <c r="A52" s="318"/>
       <c r="B52" s="26"/>
       <c r="C52" s="252"/>
       <c r="D52" s="252"/>
@@ -5959,7 +5959,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="317"/>
+      <c r="A53" s="318"/>
       <c r="B53" s="26"/>
       <c r="C53" s="252"/>
       <c r="D53" s="252"/>
@@ -5971,7 +5971,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="317"/>
+      <c r="A54" s="318"/>
       <c r="B54" s="26"/>
       <c r="C54" s="252"/>
       <c r="D54" s="252"/>
@@ -5983,7 +5983,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="317"/>
+      <c r="A55" s="318"/>
       <c r="B55" s="26"/>
       <c r="C55" s="252"/>
       <c r="D55" s="252"/>
@@ -5994,7 +5994,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="317"/>
+      <c r="A56" s="318"/>
       <c r="B56" s="26"/>
       <c r="C56" s="252"/>
       <c r="D56" s="252"/>
@@ -6005,7 +6005,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="317"/>
+      <c r="A57" s="318"/>
       <c r="B57" s="26"/>
       <c r="C57" s="252"/>
       <c r="D57" s="252"/>
@@ -6016,7 +6016,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="317"/>
+      <c r="A58" s="318"/>
       <c r="B58" s="26"/>
       <c r="C58" s="252"/>
       <c r="D58" s="252"/>
@@ -6027,7 +6027,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="317"/>
+      <c r="A59" s="318"/>
       <c r="B59" s="26"/>
       <c r="C59" s="252"/>
       <c r="D59" s="252"/>
@@ -6038,7 +6038,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="317"/>
+      <c r="A60" s="318"/>
       <c r="B60" s="26"/>
       <c r="C60" s="252"/>
       <c r="D60" s="252"/>
@@ -6049,7 +6049,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="317"/>
+      <c r="A61" s="318"/>
       <c r="B61" s="26"/>
       <c r="C61" s="252"/>
       <c r="D61" s="252"/>
@@ -6060,7 +6060,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="317"/>
+      <c r="A62" s="318"/>
       <c r="B62" s="26"/>
       <c r="C62" s="252"/>
       <c r="D62" s="252"/>
@@ -6071,7 +6071,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="317"/>
+      <c r="A63" s="318"/>
       <c r="B63" s="26"/>
       <c r="C63" s="252"/>
       <c r="D63" s="252"/>
@@ -6082,7 +6082,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="317"/>
+      <c r="A64" s="318"/>
       <c r="B64" s="26"/>
       <c r="C64" s="252"/>
       <c r="D64" s="252"/>
@@ -6093,7 +6093,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="317"/>
+      <c r="A65" s="318"/>
       <c r="B65" s="26"/>
       <c r="C65" s="252"/>
       <c r="D65" s="252"/>
@@ -6104,7 +6104,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="317"/>
+      <c r="A66" s="318"/>
       <c r="B66" s="26"/>
       <c r="C66" s="252"/>
       <c r="D66" s="252"/>
@@ -6115,7 +6115,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="317"/>
+      <c r="A67" s="318"/>
       <c r="B67" s="26"/>
       <c r="C67" s="252"/>
       <c r="D67" s="252"/>
@@ -6126,7 +6126,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="317"/>
+      <c r="A68" s="318"/>
       <c r="B68" s="26"/>
       <c r="C68" s="252"/>
       <c r="D68" s="252"/>
@@ -6137,7 +6137,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="317"/>
+      <c r="A69" s="318"/>
       <c r="B69" s="26"/>
       <c r="C69" s="252"/>
       <c r="D69" s="252"/>
@@ -6148,7 +6148,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="317"/>
+      <c r="A70" s="318"/>
       <c r="B70" s="26"/>
       <c r="C70" s="252"/>
       <c r="D70" s="252"/>
@@ -6159,7 +6159,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="317"/>
+      <c r="A71" s="318"/>
       <c r="B71" s="26"/>
       <c r="C71" s="252"/>
       <c r="D71" s="252"/>
@@ -6170,7 +6170,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="317"/>
+      <c r="A72" s="318"/>
       <c r="B72" s="26"/>
       <c r="C72" s="252"/>
       <c r="D72" s="252"/>
@@ -6181,7 +6181,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="317"/>
+      <c r="A73" s="318"/>
       <c r="B73" s="26"/>
       <c r="C73" s="252"/>
       <c r="D73" s="252"/>
@@ -6192,7 +6192,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="317"/>
+      <c r="A74" s="318"/>
       <c r="B74" s="26"/>
       <c r="C74" s="252"/>
       <c r="D74" s="252"/>
@@ -6203,7 +6203,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="317"/>
+      <c r="A75" s="318"/>
       <c r="B75" s="26"/>
       <c r="C75" s="252"/>
       <c r="D75" s="252"/>
@@ -6214,7 +6214,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="317"/>
+      <c r="A76" s="318"/>
       <c r="B76" s="26"/>
       <c r="C76" s="252"/>
       <c r="D76" s="252"/>
@@ -6225,7 +6225,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="317"/>
+      <c r="A77" s="318"/>
       <c r="B77" s="26"/>
       <c r="C77" s="252"/>
       <c r="D77" s="252"/>
@@ -6236,7 +6236,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="317"/>
+      <c r="A78" s="318"/>
       <c r="B78" s="26"/>
       <c r="C78" s="252"/>
       <c r="D78" s="252"/>
@@ -6247,7 +6247,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="317"/>
+      <c r="A79" s="318"/>
       <c r="B79" s="26"/>
       <c r="C79" s="252"/>
       <c r="D79" s="252"/>
@@ -6259,7 +6259,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="317"/>
+      <c r="A80" s="318"/>
       <c r="B80" s="26"/>
       <c r="C80" s="252"/>
       <c r="D80" s="252"/>
@@ -6271,7 +6271,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="317"/>
+      <c r="A81" s="318"/>
       <c r="B81" s="26"/>
       <c r="C81" s="252"/>
       <c r="D81" s="252"/>
@@ -6283,7 +6283,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="317"/>
+      <c r="A82" s="318"/>
       <c r="B82" s="26"/>
       <c r="C82" s="252"/>
       <c r="D82" s="252"/>
@@ -6295,7 +6295,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="317"/>
+      <c r="A83" s="318"/>
       <c r="B83" s="31"/>
       <c r="C83" s="254">
         <f>SUM(C5:C72)</f>
@@ -6350,67 +6350,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="323" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="318"/>
-      <c r="O1" s="318"/>
-      <c r="P1" s="318"/>
-      <c r="Q1" s="318"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="323"/>
+      <c r="P1" s="323"/>
+      <c r="Q1" s="323"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="319" t="s">
+      <c r="A2" s="324" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
-      <c r="J2" s="319"/>
-      <c r="K2" s="319"/>
-      <c r="L2" s="319"/>
-      <c r="M2" s="319"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="319"/>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
+      <c r="N2" s="324"/>
+      <c r="O2" s="324"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="325" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="321"/>
-      <c r="L3" s="321"/>
-      <c r="M3" s="321"/>
-      <c r="N3" s="321"/>
-      <c r="O3" s="321"/>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="322"/>
+      <c r="B3" s="326"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="326"/>
+      <c r="N3" s="326"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="326"/>
+      <c r="Q3" s="327"/>
       <c r="S3" s="49"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6419,52 +6419,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="323" t="s">
+      <c r="A4" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="325" t="s">
+      <c r="B4" s="330" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="327" t="s">
+      <c r="C4" s="319" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="327" t="s">
+      <c r="D4" s="319" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="327" t="s">
+      <c r="E4" s="319" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="327" t="s">
+      <c r="F4" s="319" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="327" t="s">
+      <c r="G4" s="319" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="327" t="s">
+      <c r="H4" s="319" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="327" t="s">
+      <c r="I4" s="319" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="327" t="s">
+      <c r="J4" s="319" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="327" t="s">
+      <c r="K4" s="319" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="327" t="s">
+      <c r="L4" s="319" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="327" t="s">
+      <c r="M4" s="319" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="327" t="s">
+      <c r="N4" s="319" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="331" t="s">
+      <c r="O4" s="321" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="329" t="s">
+      <c r="P4" s="332" t="s">
         <v>56</v>
       </c>
       <c r="Q4" s="126" t="s">
@@ -6477,22 +6477,22 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="324"/>
-      <c r="B5" s="326"/>
-      <c r="C5" s="328"/>
-      <c r="D5" s="328"/>
-      <c r="E5" s="328"/>
-      <c r="F5" s="328"/>
-      <c r="G5" s="328"/>
-      <c r="H5" s="328"/>
-      <c r="I5" s="328"/>
-      <c r="J5" s="328"/>
-      <c r="K5" s="328"/>
-      <c r="L5" s="328"/>
-      <c r="M5" s="328"/>
-      <c r="N5" s="328"/>
-      <c r="O5" s="332"/>
-      <c r="P5" s="330"/>
+      <c r="A5" s="329"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="320"/>
+      <c r="J5" s="320"/>
+      <c r="K5" s="320"/>
+      <c r="L5" s="320"/>
+      <c r="M5" s="320"/>
+      <c r="N5" s="320"/>
+      <c r="O5" s="322"/>
+      <c r="P5" s="333"/>
       <c r="Q5" s="127" t="s">
         <v>42</v>
       </c>
@@ -9518,8 +9518,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9537,6 +9535,8 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9549,8 +9549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9577,15 +9577,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="339" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
+      <c r="G1" s="339"/>
       <c r="H1" s="60"/>
       <c r="I1" s="143"/>
       <c r="J1" s="143"/>
@@ -9678,15 +9678,15 @@
       <c r="CS1" s="138"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="339" t="s">
+      <c r="A2" s="340" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="339"/>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="339"/>
-      <c r="G2" s="339"/>
+      <c r="B2" s="340"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
+      <c r="G2" s="340"/>
       <c r="H2" s="60"/>
       <c r="I2" s="143"/>
       <c r="J2" s="143"/>
@@ -9779,15 +9779,15 @@
       <c r="CS2" s="138"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="340" t="s">
+      <c r="A3" s="341" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340"/>
-      <c r="F3" s="340"/>
-      <c r="G3" s="340"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="341"/>
       <c r="H3" s="60"/>
       <c r="I3" s="143"/>
       <c r="J3" s="143"/>
@@ -13211,12 +13211,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="133"/>
-      <c r="B35" s="335" t="s">
+      <c r="B35" s="336" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="335"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="335"/>
+      <c r="C35" s="336"/>
+      <c r="D35" s="336"/>
+      <c r="E35" s="336"/>
       <c r="F35" s="134"/>
       <c r="G35" s="139"/>
       <c r="H35" s="139"/>
@@ -14037,10 +14037,10 @@
       <c r="D43" s="208"/>
       <c r="E43" s="176"/>
       <c r="F43" s="134"/>
-      <c r="G43" s="336"/>
-      <c r="H43" s="336"/>
-      <c r="I43" s="336"/>
-      <c r="J43" s="336"/>
+      <c r="G43" s="337"/>
+      <c r="H43" s="337"/>
+      <c r="I43" s="337"/>
+      <c r="J43" s="337"/>
       <c r="K43" s="60"/>
       <c r="L43" s="143"/>
       <c r="M43" s="60"/>
@@ -21952,11 +21952,11 @@
       <c r="CS118" s="138"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="333" t="s">
+      <c r="A119" s="334" t="s">
         <v>28</v>
       </c>
-      <c r="B119" s="334"/>
-      <c r="C119" s="337"/>
+      <c r="B119" s="335"/>
+      <c r="C119" s="338"/>
       <c r="D119" s="214">
         <f>SUM(D37:D118)</f>
         <v>2588530</v>
@@ -22159,11 +22159,11 @@
       <c r="CS120" s="138"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="333" t="s">
+      <c r="A121" s="334" t="s">
         <v>29</v>
       </c>
-      <c r="B121" s="334"/>
-      <c r="C121" s="334"/>
+      <c r="B121" s="335"/>
+      <c r="C121" s="335"/>
       <c r="D121" s="214">
         <f>D119+M121</f>
         <v>2588530</v>
@@ -33397,8 +33397,8 @@
   </sheetPr>
   <dimension ref="A1:Q218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33414,35 +33414,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="342" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="343"/>
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="344"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="21.75">
-      <c r="A2" s="350" t="s">
+      <c r="A2" s="351" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="351"/>
-      <c r="C2" s="351"/>
-      <c r="D2" s="351"/>
-      <c r="E2" s="352"/>
+      <c r="B2" s="352"/>
+      <c r="C2" s="352"/>
+      <c r="D2" s="352"/>
+      <c r="E2" s="353"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="23.25">
-      <c r="A3" s="344" t="s">
+      <c r="A3" s="345" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="346"/>
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="347"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33457,13 +33457,13 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="353" t="s">
+      <c r="A4" s="354" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="354"/>
-      <c r="C4" s="354"/>
-      <c r="D4" s="354"/>
-      <c r="E4" s="355"/>
+      <c r="B4" s="355"/>
+      <c r="C4" s="355"/>
+      <c r="D4" s="355"/>
+      <c r="E4" s="356"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -33666,7 +33666,7 @@
       <c r="D12" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="359">
+      <c r="E12" s="314">
         <v>79860</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -33780,13 +33780,13 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" ht="22.5">
-      <c r="A17" s="347" t="s">
+      <c r="A17" s="348" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="348"/>
-      <c r="C17" s="348"/>
-      <c r="D17" s="348"/>
-      <c r="E17" s="349"/>
+      <c r="B17" s="349"/>
+      <c r="C17" s="349"/>
+      <c r="D17" s="349"/>
+      <c r="E17" s="350"/>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
@@ -36395,16 +36395,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25">
-      <c r="A1" s="356" t="s">
+      <c r="A1" s="357" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="356"/>
+      <c r="B1" s="357"/>
     </row>
     <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="357" t="s">
+      <c r="A2" s="358" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="358"/>
+      <c r="B2" s="359"/>
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" s="308" t="s">
